--- a/reportes/RI10.10.2.25.xlsx
+++ b/reportes/RI10.10.2.25.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>VELÀSQUEZ</t>
-  </si>
-  <si>
-    <t>DELGADO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>ISAÌAS</t>
-  </si>
-  <si>
-    <t>/201761769</t>
+    <t>HIPOLITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL </t>
+  </si>
+  <si>
+    <t>JUÀREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL AGUILA </t>
+  </si>
+  <si>
+    <t>2017-41934/201761796</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,10 +91,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1993-12-09</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>1970-08-16</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>RETAHULEU</t>
@@ -118,13 +118,10 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t xml:space="preserve">VARIOS </t>
-  </si>
-  <si>
-    <t>GAUTEMALA</t>
-  </si>
-  <si>
-    <t>2048 49470 1108</t>
+    <t/>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +145,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCISCO RIVAS </t>
-  </si>
-  <si>
-    <t>ENCARGADO</t>
-  </si>
-  <si>
-    <t>5TA AVE. A 5-37 Z.3 MIXCO</t>
-  </si>
-  <si>
-    <t>40 40 47 28</t>
+    <t xml:space="preserve">LORENA GOMEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPOSA </t>
+  </si>
+  <si>
+    <t>El mosquito z3, San Marcos</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -1261,7 +1255,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1269,14 +1263,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1303,14 +1297,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1337,18 +1331,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1358,35 +1352,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1413,26 +1407,26 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23" s="31"/>
     </row>
@@ -1457,7 +1451,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1509,7 +1503,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1541,7 +1535,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1552,7 +1546,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1608,7 +1602,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1641,46 +1635,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>61</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>63</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1700,7 +1694,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1709,13 +1703,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1730,7 +1724,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.25.xlsx
+++ b/reportes/RI10.10.2.25.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>HIPOLITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL </t>
-  </si>
-  <si>
-    <t>JUÀREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEL AGUILA </t>
-  </si>
-  <si>
-    <t>2017-41934/201761796</t>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>HILLARY</t>
+  </si>
+  <si>
+    <t>AMARILIS</t>
+  </si>
+  <si>
+    <t>/201766523</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,16 +91,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1970-08-16</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>RETAHULEU</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
+    <t>2003-06-21</t>
+  </si>
+  <si>
+    <t>14 AÑOS</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -118,12 +118,15 @@
     <t>SOLTERO</t>
   </si>
   <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -145,13 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">LORENA GOMEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPOSA </t>
-  </si>
-  <si>
-    <t>El mosquito z3, San Marcos</t>
+    <t>NIDIA AGUILAR</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t>LOTE 46 M. C SAN PEDRO AYAMPUC</t>
+  </si>
+  <si>
+    <t>34363436</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -176,6 +182,12 @@
   </si>
   <si>
     <t>Dias de estancia</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>14:31:6</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1255,7 +1267,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1263,14 +1275,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1297,14 +1309,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1331,18 +1343,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1352,35 +1364,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1407,36 +1419,36 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1451,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1492,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1503,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1535,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1546,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1591,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1602,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1635,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1694,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1703,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1724,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.25.xlsx
+++ b/reportes/RI10.10.2.25.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>HILLARY</t>
-  </si>
-  <si>
-    <t>AMARILIS</t>
-  </si>
-  <si>
-    <t>/201766523</t>
+    <t>GRAVE</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>EULALIA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2012-13786/201766035</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2003-06-21</t>
-  </si>
-  <si>
-    <t>14 AÑOS</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1964-10-21</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>BAJA VERAPAZ</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -118,13 +118,13 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
+    <t>AMA DE CASA</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t/>
+    <t>NO PRESENTO</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>NIDIA AGUILAR</t>
-  </si>
-  <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t>LOTE 46 M. C SAN PEDRO AYAMPUC</t>
-  </si>
-  <si>
-    <t>34363436</t>
+    <t>JOSE PILAR GRAVE</t>
+  </si>
+  <si>
+    <t>HERMANO</t>
+  </si>
+  <si>
+    <t>VILLA NUEVA</t>
+  </si>
+  <si>
+    <t>58102338</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -184,10 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>14:31:6</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>15:13:51</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
